--- a/BallScrewLengthCalcs.xlsx
+++ b/BallScrewLengthCalcs.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwolf\Documents\Dartmouth\Research\Foosball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0365949-B9BF-460F-B637-3A971FEEEBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83321FE-928C-41EC-A563-B9F559AED3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07EE7BBB-823F-48F8-A85E-A001D6771F3A}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8928" xr2:uid="{07EE7BBB-823F-48F8-A85E-A001D6771F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>G</t>
   </si>
@@ -63,6 +62,9 @@
   </si>
   <si>
     <t>Guide Length</t>
+  </si>
+  <si>
+    <t>Ordered</t>
   </si>
 </sst>
 </file>
@@ -414,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCFECE0-E33D-4AFD-B544-0E6EC5C2C961}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -438,8 +440,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -462,8 +467,12 @@
         <f>E2-30</f>
         <v>395</v>
       </c>
+      <c r="G2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -486,8 +495,12 @@
         <f t="shared" ref="F3:F5" si="1">E3-30</f>
         <v>545</v>
       </c>
+      <c r="G3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -510,8 +523,12 @@
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
+      <c r="G4" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -534,8 +551,12 @@
         <f t="shared" si="1"/>
         <v>470</v>
       </c>
+      <c r="G5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7">
         <f>SUM(F2:F5)</f>
         <v>1730</v>

--- a/BallScrewLengthCalcs.xlsx
+++ b/BallScrewLengthCalcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwolf\Documents\Dartmouth\Research\Foosball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83321FE-928C-41EC-A563-B9F559AED3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3791C8-FC6F-4C3D-A797-363DC908E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8928" xr2:uid="{07EE7BBB-823F-48F8-A85E-A001D6771F3A}"/>
+    <workbookView xWindow="-17175" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{07EE7BBB-823F-48F8-A85E-A001D6771F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,8 +496,8 @@
         <v>545</v>
       </c>
       <c r="G3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -524,8 +524,8 @@
         <v>320</v>
       </c>
       <c r="G4" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -552,8 +552,8 @@
         <v>470</v>
       </c>
       <c r="G5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
